--- a/Data/Delphi round 1/response sheets/Karen Ho - give your expert opinion on woodland condition11.xlsx
+++ b/Data/Delphi round 1/response sheets/Karen Ho - give your expert opinion on woodland condition11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ewan McHenry\OneDrive - the Woodland Trust\Woodland condition\Delphi round 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F7477B-CFD0-4D7A-83A5-9DDAF4423D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B1F7477B-CFD0-4D7A-83A5-9DDAF4423D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D74D9ACF-0A1B-41DC-B753-2FF07CB9F1AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="8" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -250,6 +250,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: Enter values in the table below to describe that </t>
     </r>
@@ -259,6 +260,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>typical</t>
     </r>
@@ -267,6 +269,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> relationship</t>
     </r>
@@ -813,12 +816,14 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4501,7 +4506,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17976,7 +17981,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Example indicator"/>
@@ -21529,7 +21534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -22181,8 +22186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25545,15 +25550,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -25744,6 +25740,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
   <ds:schemaRefs>
@@ -25762,14 +25767,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25786,4 +25783,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>